--- a/user_test.xlsx
+++ b/user_test.xlsx
@@ -154,104 +154,200 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>1. </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>비로그인 상태의 회원은 로그인을 할 수 있다</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>.</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>2. </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>로그인 한 회원은 로그인 페이지로 접근할 수 없다</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>.</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>3. </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>로그인 할 때 아이디가 </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>db</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>에 존재하고 비번이 틀릴 경우 </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>'</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
-            <a:t>비밀번호가 틀렸습니다</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>비밀번호가 틀립니다</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>'</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>를 출력</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>4. </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>로그인 할 때 아이디가 </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>db</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>에 존재하지 않으면 </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>'</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
-            <a:t>존재하는 계정이 없습니다</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>존재하지 않는 아이디입니다</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>.'</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>를 출력</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -335,172 +431,332 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>1. </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>비로그인 상태의 회원은 아이디찾기</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>/</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>비번찾기를 할 수 있다</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>.</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>2. </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>로그인 한 회원은 이 페이지로 접근할 수 없다</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>.</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>3. </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>아이디찾기 할 때 이름</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>and</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>이메일이 동시에 일치하는 정보가 </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>db</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>에 없다면 </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>'</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
-            <a:t>존재하는 계정이 없습니다</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>계정이 존재하지 않습니다</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>.'</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>를 출력</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>4. </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>마찬가지로</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>, </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>비번찾기 할 때 이름 </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>and </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>이메일 </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>and </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>아이디가 동시에 일치하는 정보가 </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>db</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>에 없다면 </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>'</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
-            <a:t>존재하는 계정이 없습니다</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>해당 정보에 일치하는 계정이 존재하지 않습니다</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>.'</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>를 출력</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>5. </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>아이디찾기를 성공하면 회원의 아이디를 출력한다</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>.</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>6. </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>비번찾기를 성공하면 회원의 이메일로 임시비번을 발급한다</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>.</a:t>
           </a:r>
         </a:p>
@@ -578,264 +834,488 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>1. </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>비로그인 상태의 회원은 회원가입을 할 수 있다</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>.</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>2. </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>로그인 한 회원은 이 페이지로 접근할 수 없다</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>.</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>3. </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>회원이 입력한 아이디 </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>/ </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>이메일이 </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>db</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>테이블에 이미 존재하는 경우</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>, '</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>이미 존재하는 아이디 또는 이메일입니다</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>'</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>를 출력</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>4. </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
-            <a:t>모든 항목을 입력하지 않은 경우 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>모든 항목을 입력하지 않은 경우 회원가입 불가능</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>5. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>아이디</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>비밀번호는 반드시 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>8~15</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>자의 영소문자</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>+</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>숫자 혼합으로 설정 가능</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>이렇게 설정하지 않은 경우 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>'</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
-            <a:t>입력되지 않은 사항이 있습니다</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>아이디</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>비번은 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>8~15</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>자의 영소문자</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>숫자 혼합으로 설정 가능합니다</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>.'</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>를 출력</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
-            <a:t>5. </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
-            <a:t>아이디</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
-            <a:t>, </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
-            <a:t>비밀번호는 반드시 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
-            <a:t>8~15</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
-            <a:t>자의 영소문자</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
-            <a:t>+</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
-            <a:t>숫자 혼합으로 설정 가능</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
-            <a:t>. </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
-            <a:t>이렇게 설정하지 않은 경우 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>6. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>이메일 양식 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>~@~.~</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>을 지켜야 회원가입 가능</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>7. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>비밀번호와 비번확인이 같지 않을 경우 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>'</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
-            <a:t>아이디</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
-            <a:t>/</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
-            <a:t>비번은 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
-            <a:t>8~15</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
-            <a:t>자의 영소문자</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
-            <a:t>, </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
-            <a:t>숫자 혼합으로 설정 가능합니다</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>비밀번호가 서로 맞지 않습니다</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>.'</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>를 출력</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
-            <a:t>6. </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
-            <a:t>이메일 양식 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
-            <a:t>~@~.~</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
-            <a:t>을 지켜야 회원가입 가능</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
-            <a:t>7. </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
-            <a:t>비밀번호와 비번확인이 같지 않을 경우 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>8. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>이름이 한글이 아닌 경우 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>'</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
-            <a:t>비밀번호 확인이 일치하지 않습니다</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>이름은 한글만 가능합니다</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>.'</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>를 출력</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
-            <a:t>8. </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
-            <a:t>이름이 한글이 아닌 경우 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
-            <a:t>'</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
-            <a:t>이름은 한글만 가능합니다</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
-            <a:t>.'</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
-            <a:t>를 출력</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -901,7 +1381,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
-            <a:t> deleteAction, preModify, preModifyAction, myinfoModify, myinfoModifyAction)&gt;</a:t>
+            <a:t> deleteAction, myinfoModify, myinfoModifyAction)&gt;</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -911,279 +1391,464 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>1. </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>마이페이지는 본인만 접근할 수 있다</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>.</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>2. </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>본인 계정 탈퇴를 위해서는 비밀번호를 반드시 입력해야하며</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>, </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>비밀번호가 틀리면 </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>'</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>비밀번호가 틀립니다</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>.'</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>를 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>출력</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" b="0" u="none" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>3. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>계정 탈퇴가 성공적으로 이루어지면 랭킹이 업데이트된다</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>4. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>본인 정보를 수정하기 위해서는 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>*</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>표시된 현재 비밀번호를 반드시 입력해야한다</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>입력하지 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>않을 경우 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>'</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>비밀번호를 입력해주세요</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>'</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>를 출력</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
-            <a:t>3. </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
-            <a:t>계정 탈퇴가 성공적으로 이루어지면 랭킹이 업데이트된다</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
-            <a:t>.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
-            <a:t>4. </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
-            <a:t>본인 정보 수정을 위해서는 비밀번호를 반드시 입력해야하며</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>5. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>비밀번호를 변경할 경우</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>, 8~15</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>자의 영소문자</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>+</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>숫자 혼합 조건을 지켜야하며</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>, </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
-            <a:t>비밀번호가 틀리면 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>이를 지키지 않을 경우 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>'</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
-            <a:t>비밀번호가 틀립니다</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>비밀번호는 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>8~15</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>자의 영소문자</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>숫자 혼합으로 이루어져야 합니다</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>.'</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>를 출력</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
-            <a:t>5. </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
-            <a:t>본인 정보를 수정하기 위해서는 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
-            <a:t>*</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
-            <a:t>표시된 현재 비밀번호를 반드시 입력해야한다</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
-            <a:t>. </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
-            <a:t>입력하지 않을 경우 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>6. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>비밀번호 확인이 틀리면 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>'</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
-            <a:t>비밀번호를 입력해주세요</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>새로운 비밀번호가 서로 맞지 않습니다</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>'</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>를 출력</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
-            <a:t>6. </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
-            <a:t>비밀번호를 변경할 경우</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
-            <a:t>, 8~15</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
-            <a:t>자의 영소문자</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
-            <a:t>+</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
-            <a:t>숫자 혼합 조건을 지켜야하며</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
-            <a:t>, </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
-            <a:t>이를 지키지 않을 경우 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
-            <a:t>'</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
-            <a:t>비밀번호는 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
-            <a:t>8~15</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
-            <a:t>자의 영소문자</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
-            <a:t>, </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
-            <a:t>숫자 혼합으로 이루어져야 합니다</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
-            <a:t>.'</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
-            <a:t>를 출력</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>7. </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
-            <a:t>비밀번호 확인이 틀리면 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
-            <a:t>'</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
-            <a:t>비밀번호 확인이 일치하지 않습니다</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
-            <a:t>'</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
-            <a:t>를 출력</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
-            <a:t>8. </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
-            <a:t>이메일은 양식을 지켜야함</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
-            <a:t>.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
-            <a:t>9. </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>수정하기 버튼을 누르면 정보 업데이트 후 </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>mypage</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>로 돌아옴</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -1263,26 +1928,46 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>1. </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>비로그인 상태의 회원은 로그아웃을 할 수 없다</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>.</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>2. </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>로그인 한 회원은 로그아웃을 할 수 있다</a:t>
           </a:r>
           <a:r>
@@ -1364,23 +2049,43 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>1. </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>비로그인 </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>/ </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>로그인 상태의 회원은 이 페이지에 접근할 수 있다</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>.</a:t>
           </a:r>
         </a:p>
@@ -1458,38 +2163,70 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>1. </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>비로그인 </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>/ </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>로그인 상태의 회원은 이 페이지에 접근할 수 있다</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>.</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>2. </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>질문을 클릭하면 답변이 드롭다운으로 펼쳐지거나 접힌다</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>.</a:t>
           </a:r>
         </a:p>
@@ -1507,8 +2244,8 @@
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>82550</xdr:rowOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1518,7 +2255,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4794250" y="4552950"/>
-          <a:ext cx="2908300" cy="5245100"/>
+          <a:ext cx="2908300" cy="5562600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1572,156 +2309,292 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>1. </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>비로그인 </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>/ </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>로그인 상태의 회원은 이 페이지에 접근할 수 있다</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>.</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>2. notice</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>페이지에서 중요공지는 맨 상단에 파랗게 색칠되어 표시된다</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>.</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>3. </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>제목을 클릭하면 </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>notice_View</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>페이지로 들어갈 수 있다</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>.</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>4. </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>머릿말이 </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>'</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>모임공지</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>'</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>인 경우</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>, '</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>진행중</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>', '</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>신청마감</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>', '</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>완료</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>' </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>표시가 뜬다</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>. </a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="1" u="sng" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>5. </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="1" u="sng" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>게시물이 한 페이지에 </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="1" u="sng" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>12</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="1" u="sng" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>개씩 표시되며</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="1" u="sng" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>, </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="1" u="sng" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>맨 하단의 페이지 이동 버튼을 통해 다음 게시물 리스트를 확인할 수 있다</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="1" u="sng" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -1731,7 +2604,7 @@
             <a:t>.(</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="1" u="sng" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
@@ -1742,7 +2615,7 @@
             </a:rPr>
             <a:t>paging)</a:t>
           </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="500">
+          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="500" b="1" u="sng">
             <a:solidFill>
               <a:srgbClr val="FF0000"/>
             </a:solidFill>
@@ -1752,355 +2625,687 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>6. </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>제목에 포함된 단어나 문장을 입력하여 게시물을 검색할 수 있다</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>. </a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>7. '</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>진행중</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>'</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>인 게시물의 </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>view</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>페이지에서는 참가신청 </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>/ </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>참가자확인 </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>/ </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>목록 버튼이 존재한다</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>.</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>8. </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>참가신청 버튼을 누를 경우</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>, join_write</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>페이지로 이동하며</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>, </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>이 페이지는 로그인 한 대상들만 접근할 수 있다</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>.</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>9. </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>참가자 확인 버튼을 누를 경우</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>, join</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>페이지로 이동하며</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>, </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>이 페이지는 비로그인</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>/</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>로그인 한 대상들 모두 접근 가능하다</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>.</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>10. </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>목록 버튼을 누르면 </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>notice</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>페이지로 돌아간다</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>.</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>11. '</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>신청마감</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>'</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>인 게시물의 </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>view </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>페이지에서는 참가자 확인 </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>/ </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>목록 버튼만 존재한다</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>.</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>12. '</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>완료</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>'</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>인 게시물의 </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>view</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>페이지에서는 결과확인 </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>/ </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>후기확인 </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>/ </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>참가자확인 </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>/ </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>목록 버튼이 존재한다</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>.</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="1" u="sng" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>13. </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="1" u="sng" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>결과 확인 버튼을 누르면 </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="1" u="sng" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>result_view</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="1" u="sng" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>페이지로 이동한다</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="1" u="sng" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>. </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="1" u="sng" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>단</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="1" u="sng" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>, </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="1" u="sng" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>해당 게시물에 대한 결과게시물이 아직 존재하지않을 경우</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="1" u="sng" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>, '</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="1" u="sng" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>결과가 작성되지 않았습니다</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="1" u="sng" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>.'</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="1" u="sng" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>를 출력</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" b="1" u="sng" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="1" u="sng" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>14. </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="1" u="sng" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>후기 확인 버튼을 누르면 </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="1" u="sng" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>review_view </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="1" u="sng" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>페이지로 이동한다</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="1" u="sng" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>. </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="1" u="sng" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>단</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="1" u="sng" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>, </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="1" u="sng" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>해당 게시물에 대한 후기게시물이 아직 존재하지 않을 경우</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="1" u="sng" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>, '</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="1" u="sng" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>후기가 작성되지 않ㅇ앗습니다</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="1" u="sng" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>.'</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="1" u="sng" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>를 출력</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" b="1" u="sng" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2189,135 +3394,231 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>1. </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>비로그인 </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>/ </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>로그인 상태의 회원은 이 페이지에 접근할 수 있다</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>.</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>2. </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>제목을 클릭하면 </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>result_View </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>또는 </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>review_view</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>페이지로 들어갈 수 있다</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>.</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="1" u="sng" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>3. </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="1" u="sng" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>게시물이 한 페이지에 </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="1" u="sng" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>12</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="1" u="sng" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>개씩 표시되며</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="1" u="sng" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>, </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="1" u="sng" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>맨 하단의 페이지 이동 버튼을 통해 다음 게시물 리스트를 확인할 수 있다</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
-            <a:t>.(</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>paging</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
-            <a:t>)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="1" u="sng" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>.(paging)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>4. </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>제목에 포함된 단어나 문장을 입력하여 게시물을 검색할 수 있다</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>. </a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>5. db</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>에 존재하면서 </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>bbsAvailable=1</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>인 게시물들만 보이게 한다</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>.</a:t>
           </a:r>
         </a:p>
@@ -2400,121 +3701,264 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>1. </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>비로그인 </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>/ </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>로그인 상태의 회원은 이 페이지에 접근할 수 있다</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>.</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>2. </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>회원 아이디를 클릭하면 회원정보 페이지</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>(show userInfo)</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>로 이동할 수 있다</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>.</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="1" u="sng" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>3. </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="1" u="sng" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>이름</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="1" u="sng" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>, </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="1" u="sng" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>아이디</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="1" u="sng" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>, </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="1" u="sng" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>부수를 통해 회원 검색이 가능하다</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="1" u="sng" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>.</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="1" u="sng" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="1" u="sng" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>부수 검색 시 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="1" u="sng" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="1" u="sng" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>검색하면 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="1" u="sng" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>-2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="1" u="sng" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>까지 출력되는 부분 고치기</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="1" u="sng" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="1" u="sng" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>4. </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="1" u="sng" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>한 페이지 당 </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="1" u="sng" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>12</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="1" u="sng" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>명 씩 출력한다</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="1" u="sng" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>. </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="1" u="sng" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>맨 하단에는 페이지 이동 버튼이 존재한다</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
-            <a:t>.(</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>paging</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
-            <a:t>)</a:t>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="1" u="sng" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>.(paging)</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2600,117 +4044,225 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>1. </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>비로그인 </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>/ </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>로그인 상태의 회원은 이 페이지에 접근할 수 있다</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>.</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>2. </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>입금확인된 참가팀은 빨간 글씨로 </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>'</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>완료</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>', </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>입금확인이 안된 참가팀은 파란 글씨로 </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>'</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>대기</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>'</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>를 출력</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>3. </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>참가신청한 본인은 맨 오른쪽에 </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>'</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>참가내역보기</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>' </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>버튼이 뜬다</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>.</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>이 버튼을 클릭하면 </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>join_view </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>페이지로 이동한다</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>.</a:t>
           </a:r>
         </a:p>
@@ -2843,7 +4395,7 @@
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="dk1"/>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -2855,7 +4407,7 @@
           <a:r>
             <a:rPr lang="ko-KR" altLang="ko-KR" sz="800" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="dk1"/>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -2867,7 +4419,7 @@
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="dk1"/>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -2877,6 +4429,9 @@
             <a:t>.</a:t>
           </a:r>
           <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="400">
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
             <a:effectLst/>
           </a:endParaRPr>
         </a:p>
@@ -2884,7 +4439,7 @@
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="dk1"/>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -2896,7 +4451,7 @@
           <a:r>
             <a:rPr lang="ko-KR" altLang="ko-KR" sz="800" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="dk1"/>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -2908,7 +4463,7 @@
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="dk1"/>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -2920,7 +4475,7 @@
           <a:r>
             <a:rPr lang="ko-KR" altLang="ko-KR" sz="800" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="dk1"/>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -2932,7 +4487,7 @@
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="dk1"/>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -2944,7 +4499,7 @@
           <a:r>
             <a:rPr lang="ko-KR" altLang="ko-KR" sz="800" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="dk1"/>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -2956,7 +4511,7 @@
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="dk1"/>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -2966,6 +4521,9 @@
             <a:t>.</a:t>
           </a:r>
           <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="400">
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
             <a:effectLst/>
           </a:endParaRPr>
         </a:p>
@@ -2973,7 +4531,7 @@
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="dk1"/>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -2985,7 +4543,7 @@
           <a:r>
             <a:rPr lang="ko-KR" altLang="ko-KR" sz="800" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="dk1"/>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -2997,7 +4555,7 @@
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="dk1"/>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -3009,7 +4567,7 @@
           <a:r>
             <a:rPr lang="ko-KR" altLang="ko-KR" sz="800" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="dk1"/>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -3021,7 +4579,7 @@
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="dk1"/>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -3031,6 +4589,9 @@
             <a:t>.</a:t>
           </a:r>
           <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="400">
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
             <a:effectLst/>
           </a:endParaRPr>
         </a:p>
@@ -3038,7 +4599,7 @@
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="dk1"/>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -3050,7 +4611,7 @@
           <a:r>
             <a:rPr lang="ko-KR" altLang="ko-KR" sz="800" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="dk1"/>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -3062,7 +4623,7 @@
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="dk1"/>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -3074,7 +4635,7 @@
           <a:r>
             <a:rPr lang="ko-KR" altLang="ko-KR" sz="800" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="dk1"/>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -3086,7 +4647,7 @@
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="dk1"/>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -3098,7 +4659,7 @@
           <a:r>
             <a:rPr lang="ko-KR" altLang="ko-KR" sz="800" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="dk1"/>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -3110,7 +4671,7 @@
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="dk1"/>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -3122,7 +4683,7 @@
           <a:r>
             <a:rPr lang="ko-KR" altLang="ko-KR" sz="800" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="dk1"/>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -3134,7 +4695,7 @@
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="dk1"/>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -3146,7 +4707,7 @@
           <a:r>
             <a:rPr lang="ko-KR" altLang="ko-KR" sz="800" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="dk1"/>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -3158,7 +4719,7 @@
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="dk1"/>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -3170,7 +4731,7 @@
           <a:r>
             <a:rPr lang="ko-KR" altLang="ko-KR" sz="800" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="dk1"/>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -3182,7 +4743,7 @@
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="dk1"/>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -3194,7 +4755,7 @@
           <a:r>
             <a:rPr lang="ko-KR" altLang="ko-KR" sz="800" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="dk1"/>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -3206,7 +4767,7 @@
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="dk1"/>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -3216,6 +4777,9 @@
             <a:t>.</a:t>
           </a:r>
           <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="400">
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
             <a:effectLst/>
           </a:endParaRPr>
         </a:p>
@@ -3223,7 +4787,7 @@
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="dk1"/>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -3235,7 +4799,7 @@
           <a:r>
             <a:rPr lang="ko-KR" altLang="ko-KR" sz="800" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="dk1"/>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -3247,7 +4811,7 @@
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="dk1"/>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -3259,7 +4823,7 @@
           <a:r>
             <a:rPr lang="ko-KR" altLang="ko-KR" sz="800" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="dk1"/>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -3271,7 +4835,7 @@
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="dk1"/>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -3283,7 +4847,7 @@
           <a:r>
             <a:rPr lang="ko-KR" altLang="ko-KR" sz="800" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="dk1"/>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -3295,7 +4859,7 @@
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="dk1"/>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -3307,7 +4871,7 @@
           <a:r>
             <a:rPr lang="ko-KR" altLang="ko-KR" sz="800" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="dk1"/>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -3319,7 +4883,7 @@
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="dk1"/>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -3331,7 +4895,7 @@
           <a:r>
             <a:rPr lang="ko-KR" altLang="ko-KR" sz="800" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="dk1"/>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -3341,14 +4905,17 @@
             <a:t>를 출력</a:t>
           </a:r>
           <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="400">
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
             <a:effectLst/>
           </a:endParaRPr>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="1" u="sng" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -3358,9 +4925,9 @@
             <a:t>6. '</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="ko-KR" sz="800" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
+            <a:rPr lang="ko-KR" altLang="ko-KR" sz="800" b="1" u="sng" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -3370,9 +4937,9 @@
             <a:t>입금 완료</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="1" u="sng" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -3382,9 +4949,9 @@
             <a:t>'</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="ko-KR" sz="800" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
+            <a:rPr lang="ko-KR" altLang="ko-KR" sz="800" b="1" u="sng" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -3394,9 +4961,9 @@
             <a:t>가 된 모임에 대해서는 삭제가 불가능하다</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="1" u="sng" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -3405,7 +4972,10 @@
             </a:rPr>
             <a:t>.</a:t>
           </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="400">
+          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="400" b="1" u="sng">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
             <a:effectLst/>
           </a:endParaRPr>
         </a:p>
@@ -3423,8 +4993,8 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3434,7 +5004,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2349500" y="6826250"/>
-          <a:ext cx="2235200" cy="2921000"/>
+          <a:ext cx="2235200" cy="3689350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3483,172 +5053,366 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>1. </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>로그인 상태의 회원은 이 페이지에 접근할 수 있다</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>.</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>2. </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>비로그인 상태의 회원이 접근할 경우</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>, '</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>로그인이 필요합니다</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>.'</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>를 출력 후 </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>login</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>페이지로 이동</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>3. </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>회원 이름 또는 아이디 검색을 통해 참가자 선택이 가능</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>4. </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>연락처는 반드시 </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>000-0000-0000 </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>양식을 지켜야함</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>.</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="1" u="sng" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>5. </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="1" u="sng" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>비밀번호는 반드시 </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="1" u="sng" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>4</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="1" u="sng" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>자리 숫자</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="1" u="sng" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="1" u="sng" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>숫자 외 입력되어도 참가신청됨</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="1" u="sng" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>.. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="1" u="sng" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>수정하기</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="1" u="sng" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>!)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>6. '</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>건의사항</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>' </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>외에 나머지는 빈칸이면 안됨</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>,. </a:t>
           </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
-            <a:t>빈칸이면 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
-            <a:t>'</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
-            <a:t>입력 안된 사항이 있습니다</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
-            <a:t>.'</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
-            <a:t>를 출력</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>7. </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>참가신청 완료하면 </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>join</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>페이지로 이동</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="1" u="sng" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>8. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="1" u="sng" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>참가자도 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="1" u="sng" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>null</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="1" u="sng" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>이면 앋ㄴ됨</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" b="1" u="sng" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3724,115 +5488,258 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>1. </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>비로그인</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>/</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>로그인 상태의 회원은 이 페이지에 접근할 수 있다</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>.</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="1" u="sng" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>2. </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="1" u="sng" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>부수를 통해 검색이 가능하다</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="1" u="sng" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>.</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="1" u="sng" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="1" u="sng" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>부 검색하면 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="1" u="sng" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>-2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="1" u="sng" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>뜨는거 고치기</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="1" u="sng" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>3. </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>회원 아이디 클릭하면 </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>show_userInfo</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>페이지로 이동한다</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>.</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>4. </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>이미 이 모임에 참가신청한 회원은 옆에 </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>'</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>참가신청 완료</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>'</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>가 뜬다</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>.</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="1" u="sng" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>5. 12</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="1" u="sng" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>명씩 출력</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="1" u="sng" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>. </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="1" u="sng" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>맨 하단에는 페이지 이동 버튼 </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="1" u="sng" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>(paging)</a:t>
           </a:r>
         </a:p>
@@ -3910,45 +5817,77 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>1. </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>비로그인</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>/</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>로그인 상태의 회원은 이 페이지에 접근할 수 있다</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>.</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>2. </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>이 페이지는 페이징 기능을 넣지 않는다</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>.</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="1" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
@@ -3956,7 +5895,7 @@
             <a:t>3. '</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="1" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
@@ -3964,7 +5903,7 @@
             <a:t>출력하기</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="1" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
@@ -3972,7 +5911,7 @@
             <a:t>'</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="1" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
@@ -3980,7 +5919,7 @@
             <a:t>버튼은 관리자만 볼 수 있다</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="1" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
@@ -3991,7 +5930,7 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="1" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
@@ -3999,7 +5938,7 @@
             <a:t>4. </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="1" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
@@ -4007,7 +5946,7 @@
             <a:t>아직 조편성이 이루어지지 않은 경우 </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="1" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
@@ -4015,7 +5954,7 @@
             <a:t>'</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="1" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
@@ -4023,7 +5962,7 @@
             <a:t>조편성 전입니다</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="1" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
@@ -4031,14 +5970,14 @@
             <a:t>.'</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="1" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:rPr>
             <a:t>를 출력</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" b="1" baseline="0">
             <a:solidFill>
               <a:srgbClr val="FF0000"/>
             </a:solidFill>
@@ -4051,7 +5990,7 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="1" u="sng" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
@@ -4059,14 +5998,14 @@
             <a:t>++) join</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="1" u="sng" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:rPr>
             <a:t>페이지에 조편성 확인 버튼 추가</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" b="1" u="sng" baseline="0">
             <a:solidFill>
               <a:srgbClr val="FF0000"/>
             </a:solidFill>
@@ -4368,7 +6307,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
       <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>

--- a/user_test.xlsx
+++ b/user_test.xlsx
@@ -3102,208 +3102,208 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="1" u="sng" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
             </a:rPr>
             <a:t>13. </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="1" u="sng" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
             </a:rPr>
             <a:t>결과 확인 버튼을 누르면 </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="1" u="sng" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
             </a:rPr>
             <a:t>result_view</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="1" u="sng" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
             </a:rPr>
             <a:t>페이지로 이동한다</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="1" u="sng" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
             </a:rPr>
             <a:t>. </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="1" u="sng" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
             </a:rPr>
             <a:t>단</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="1" u="sng" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
             </a:rPr>
             <a:t>, </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="1" u="sng" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
             </a:rPr>
             <a:t>해당 게시물에 대한 결과게시물이 아직 존재하지않을 경우</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="1" u="sng" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
             </a:rPr>
             <a:t>, '</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="1" u="sng" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
             </a:rPr>
             <a:t>결과가 작성되지 않았습니다</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="1" u="sng" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
             </a:rPr>
             <a:t>.'</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="1" u="sng" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
             </a:rPr>
             <a:t>를 출력</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" b="1" u="sng" baseline="0">
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" b="0" u="none" baseline="0">
             <a:solidFill>
-              <a:srgbClr val="FF0000"/>
+              <a:schemeClr val="accent6"/>
             </a:solidFill>
           </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="1" u="sng" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
             </a:rPr>
             <a:t>14. </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="1" u="sng" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
             </a:rPr>
             <a:t>후기 확인 버튼을 누르면 </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="1" u="sng" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
             </a:rPr>
             <a:t>review_view </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="1" u="sng" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
             </a:rPr>
             <a:t>페이지로 이동한다</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="1" u="sng" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
             </a:rPr>
             <a:t>. </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="1" u="sng" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
             </a:rPr>
             <a:t>단</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="1" u="sng" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
             </a:rPr>
             <a:t>, </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="1" u="sng" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
             </a:rPr>
             <a:t>해당 게시물에 대한 후기게시물이 아직 존재하지 않을 경우</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="1" u="sng" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
             </a:rPr>
             <a:t>, '</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="1" u="sng" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
             </a:rPr>
             <a:t>후기가 작성되지 않ㅇ앗습니다</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="1" u="sng" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
             </a:rPr>
             <a:t>.'</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="1" u="sng" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
             </a:rPr>
             <a:t>를 출력</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" b="1" u="sng" baseline="0">
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" b="0" u="none" baseline="0">
             <a:solidFill>
-              <a:srgbClr val="FF0000"/>
+              <a:schemeClr val="accent6"/>
             </a:solidFill>
           </a:endParaRPr>
         </a:p>
@@ -4913,9 +4913,9 @@
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="1" u="sng" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -4925,9 +4925,9 @@
             <a:t>6. '</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="ko-KR" sz="800" b="1" u="sng" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+            <a:rPr lang="ko-KR" altLang="ko-KR" sz="800" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -4937,9 +4937,9 @@
             <a:t>입금 완료</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="1" u="sng" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -4949,9 +4949,9 @@
             <a:t>'</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="ko-KR" sz="800" b="1" u="sng" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+            <a:rPr lang="ko-KR" altLang="ko-KR" sz="800" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -4961,9 +4961,9 @@
             <a:t>가 된 모임에 대해서는 삭제가 불가능하다</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="1" u="sng" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -4972,9 +4972,9 @@
             </a:rPr>
             <a:t>.</a:t>
           </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="400" b="1" u="sng">
+          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="400" b="0" u="none">
             <a:solidFill>
-              <a:srgbClr val="FF0000"/>
+              <a:schemeClr val="accent6"/>
             </a:solidFill>
             <a:effectLst/>
           </a:endParaRPr>
@@ -5342,10 +5342,18 @@
                 <a:schemeClr val="accent6"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>7. </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+            <a:t>7</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0" u="none" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="accent6"/>
               </a:solidFill>
@@ -5353,7 +5361,7 @@
             <a:t>참가신청 완료하면 </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0" u="none" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="accent6"/>
               </a:solidFill>
@@ -5361,14 +5369,14 @@
             <a:t>join</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0" u="none" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="accent6"/>
               </a:solidFill>
             </a:rPr>
             <a:t>페이지로 이동</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" b="0" u="none" baseline="0">
             <a:solidFill>
               <a:schemeClr val="accent6"/>
             </a:solidFill>
@@ -5377,40 +5385,40 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="1" u="sng" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
             </a:rPr>
             <a:t>8. </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="1" u="sng" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
             </a:rPr>
             <a:t>참가자도 </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="1" u="sng" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
             </a:rPr>
             <a:t>null</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="1" u="sng" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
             </a:rPr>
             <a:t>이면 앋ㄴ됨</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" b="1" u="sng" baseline="0">
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" b="0" u="none" baseline="0">
             <a:solidFill>
-              <a:srgbClr val="FF0000"/>
+              <a:schemeClr val="accent6"/>
             </a:solidFill>
           </a:endParaRPr>
         </a:p>
@@ -5868,7 +5876,7 @@
             <a:t>2. </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0" u="none" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="accent6"/>
               </a:solidFill>
@@ -5876,7 +5884,7 @@
             <a:t>이 페이지는 페이징 기능을 넣지 않는다</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0" u="none" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="accent6"/>
               </a:solidFill>
@@ -5887,99 +5895,56 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="1" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>3. '</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="1" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>출력하기</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="1" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>3. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>아직 조편성이 이루어지지 않은 경우 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
             </a:rPr>
             <a:t>'</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="1" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>버튼은 관리자만 볼 수 있다</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="1" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="1" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>4. </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="1" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>아직 조편성이 이루어지지 않은 경우 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="1" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>'</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="1" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
             </a:rPr>
             <a:t>조편성 전입니다</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="1" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
             </a:rPr>
             <a:t>.'</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="1" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
             </a:rPr>
             <a:t>를 출력</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" b="1" baseline="0">
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" b="0" u="none" baseline="0">
             <a:solidFill>
-              <a:srgbClr val="FF0000"/>
+              <a:schemeClr val="accent6"/>
             </a:solidFill>
           </a:endParaRPr>
         </a:p>
@@ -5990,24 +5955,24 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="1" u="sng" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
             </a:rPr>
             <a:t>++) join</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="1" u="sng" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
             </a:rPr>
             <a:t>페이지에 조편성 확인 버튼 추가</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" b="1" u="sng" baseline="0">
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" b="0" u="none" baseline="0">
             <a:solidFill>
-              <a:srgbClr val="FF0000"/>
+              <a:schemeClr val="accent6"/>
             </a:solidFill>
           </a:endParaRPr>
         </a:p>
@@ -6307,7 +6272,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>

--- a/user_test.xlsx
+++ b/user_test.xlsx
@@ -5205,10 +5205,18 @@
                 <a:schemeClr val="accent6"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>양식을 지켜야함</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+            <a:t>양식을 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>지켜야함</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0" u="none" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="accent6"/>
               </a:solidFill>
@@ -5219,73 +5227,73 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="1" u="sng" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
             </a:rPr>
             <a:t>5. </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="1" u="sng" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
             </a:rPr>
             <a:t>비밀번호는 반드시 </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="1" u="sng" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
             </a:rPr>
             <a:t>4</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="1" u="sng" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
             </a:rPr>
             <a:t>자리 숫자</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="1" u="sng" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
             </a:rPr>
             <a:t>(</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="1" u="sng" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
             </a:rPr>
             <a:t>숫자 외 입력되어도 참가신청됨</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="1" u="sng" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
             </a:rPr>
             <a:t>.. </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="1" u="sng" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
             </a:rPr>
             <a:t>수정하기</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="1" u="sng" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
             </a:rPr>
             <a:t>!)</a:t>
@@ -5294,7 +5302,7 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0" u="none" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="accent6"/>
               </a:solidFill>
@@ -5302,7 +5310,7 @@
             <a:t>6. '</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0" u="none" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="accent6"/>
               </a:solidFill>
@@ -5310,7 +5318,7 @@
             <a:t>건의사항</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0" u="none" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="accent6"/>
               </a:solidFill>
@@ -5318,12 +5326,20 @@
             <a:t>' </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>외에 나머지는 빈칸이면 안됨</a:t>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>외에 나머지는 빈칸이면 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>안됨</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
@@ -6272,7 +6288,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
       <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>

--- a/user_test.xlsx
+++ b/user_test.xlsx
@@ -3773,10 +3773,18 @@
                 <a:schemeClr val="accent6"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>로 이동할 수 있다</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" u="none" baseline="0">
+            <a:t>로 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>이동할 수 있다</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0" u="none" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="accent6"/>
               </a:solidFill>
@@ -3787,57 +3795,57 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="1" u="sng" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
             </a:rPr>
             <a:t>3. </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="1" u="sng" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
             </a:rPr>
             <a:t>이름</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="1" u="sng" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
             </a:rPr>
             <a:t>, </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="1" u="sng" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
             </a:rPr>
             <a:t>아이디</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="1" u="sng" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
             </a:rPr>
             <a:t>, </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="1" u="sng" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
             </a:rPr>
             <a:t>부수를 통해 회원 검색이 가능하다</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="1" u="sng" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
             </a:rPr>
             <a:t>.</a:t>
@@ -3846,57 +3854,57 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="1" u="sng" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
             </a:rPr>
             <a:t>(</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="1" u="sng" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
             </a:rPr>
             <a:t>부수 검색 시 </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="1" u="sng" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
             </a:rPr>
             <a:t>2 </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="1" u="sng" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
             </a:rPr>
             <a:t>검색하면 </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="1" u="sng" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
             </a:rPr>
             <a:t>-2</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="1" u="sng" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
             </a:rPr>
             <a:t>까지 출력되는 부분 고치기</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="1" u="sng" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
             </a:rPr>
             <a:t>)</a:t>
@@ -5541,10 +5549,18 @@
                 <a:schemeClr val="accent6"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>로그인 상태의 회원은 이 페이지에 접근할 수 있다</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+            <a:t>로그인 상태의 회원은 이 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>페이지에 접근할 수 있다</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0" u="none" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="accent6"/>
               </a:solidFill>
@@ -5555,25 +5571,25 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="1" u="sng" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
             </a:rPr>
             <a:t>2. </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="1" u="sng" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
             </a:rPr>
             <a:t>부수를 통해 검색이 가능하다</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="1" u="sng" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
             </a:rPr>
             <a:t>.</a:t>
@@ -5582,41 +5598,41 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="1" u="sng" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
             </a:rPr>
             <a:t>(2</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="1" u="sng" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
             </a:rPr>
             <a:t>부 검색하면 </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="1" u="sng" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
             </a:rPr>
             <a:t>-2</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="1" u="sng" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
             </a:rPr>
             <a:t>뜨는거 고치기</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="1" u="sng" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
             </a:rPr>
             <a:t>)</a:t>
@@ -6288,7 +6304,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
       <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>

--- a/user_test.xlsx
+++ b/user_test.xlsx
@@ -2544,57 +2544,57 @@
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="1" u="sng" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
             </a:rPr>
             <a:t>5. </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="1" u="sng" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
             </a:rPr>
             <a:t>게시물이 한 페이지에 </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="1" u="sng" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
             </a:rPr>
             <a:t>12</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="1" u="sng" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
             </a:rPr>
             <a:t>개씩 표시되며</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="1" u="sng" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
             </a:rPr>
             <a:t>, </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="1" u="sng" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
             </a:rPr>
             <a:t>맨 하단의 페이지 이동 버튼을 통해 다음 게시물 리스트를 확인할 수 있다</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="1" u="sng" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -2604,9 +2604,9 @@
             <a:t>.(</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="1" u="sng" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -2615,9 +2615,9 @@
             </a:rPr>
             <a:t>paging)</a:t>
           </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="500" b="1" u="sng">
+          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="500" b="0" u="none">
             <a:solidFill>
-              <a:srgbClr val="FF0000"/>
+              <a:schemeClr val="accent6"/>
             </a:solidFill>
             <a:effectLst/>
           </a:endParaRPr>
@@ -3496,57 +3496,57 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="1" u="sng" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
             </a:rPr>
             <a:t>3. </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="1" u="sng" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
             </a:rPr>
             <a:t>게시물이 한 페이지에 </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="1" u="sng" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
             </a:rPr>
             <a:t>12</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="1" u="sng" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
             </a:rPr>
             <a:t>개씩 표시되며</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="1" u="sng" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
             </a:rPr>
             <a:t>, </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="1" u="sng" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
             </a:rPr>
             <a:t>맨 하단의 페이지 이동 버튼을 통해 다음 게시물 리스트를 확인할 수 있다</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="1" u="sng" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
             </a:rPr>
             <a:t>.(paging)</a:t>
@@ -3913,57 +3913,57 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="1" u="sng" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
             </a:rPr>
             <a:t>4. </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="1" u="sng" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
             </a:rPr>
             <a:t>한 페이지 당 </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="1" u="sng" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
             </a:rPr>
             <a:t>12</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="1" u="sng" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
             </a:rPr>
             <a:t>명 씩 출력한다</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="1" u="sng" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
             </a:rPr>
             <a:t>. </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="1" u="sng" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
             </a:rPr>
             <a:t>맨 하단에는 페이지 이동 버튼이 존재한다</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="1" u="sng" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
             </a:rPr>
             <a:t>.(paging)</a:t>
@@ -5743,41 +5743,41 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="1" u="sng" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
             </a:rPr>
             <a:t>5. 12</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="1" u="sng" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
             </a:rPr>
             <a:t>명씩 출력</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="1" u="sng" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
             </a:rPr>
             <a:t>. </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="1" u="sng" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
             </a:rPr>
             <a:t>맨 하단에는 페이지 이동 버튼 </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="1" u="sng" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
             </a:rPr>
             <a:t>(paging)</a:t>
@@ -6304,7 +6304,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
